--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_interview_es.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_interview_es.xlsx
@@ -25243,204 +25243,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if len(bad_conditions):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ya listó los problemas de estas habitaciones:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for button in bad_conditions:                           
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:pencil-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${ str(button).capitalize() }]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ url_action('bad_conditions["' + button + '"].claims') }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> )
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% else:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Su vivienda está protegida por el </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[código sanitario  del estado]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">).  
-Haga clic en los botones a continuación para saber qué significa que el hogar sea seguro en diferentes categorías.                             
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif                         </t>
-    </r>
-  </si>
-  <si>
     <t>6646bfeed084e19ccc2835aefcd3e96d</t>
   </si>
   <si>
@@ -25992,128 +25794,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Los problemas que se listaron arriba se abordan en las siguientes secciones del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[código sanitario]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">):
-Problema | Código sanitario 
---------|------------------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for row in dataloader.get_rows(allowed_types=["24 hours"], filter_column="Deadline").iterrows():
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ row[1]['Interview description'] }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ row[1]['Sanitary Code Section'] }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor                         </t>
-    </r>
-  </si>
-  <si>
     <t>Non-emergency claims</t>
   </si>
   <si>
@@ -26314,128 +25994,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Los problemas que se listaron arriba se abordan en las siguientes secciones del </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[código sanitario]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">):      
-Problema | Código sanitario 
---------|------------------
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for row in dataloader.get_rows(allowed_types=[i], filter_column="Category").iterrows():                
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ row[1]['Interview description'] }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ row[1]['Sanitary Code Section'] }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor                                 </t>
-    </r>
-  </si>
-  <si>
     <t>there is another condition</t>
   </si>
   <si>
@@ -26484,40 +26042,6 @@
       <t xml:space="preserve">.
 Tap "yes" if you want to look at problems in another category.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Hasta ahora ha revisado problemas en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ comma_and_list([f'"{str(key).capitalize()}"' for key in bad_conditions.keys()]) }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.  
-Toque “sí” si quiere ver problemas en otra categoría.            </t>
     </r>
   </si>
   <si>
@@ -27082,244 +26606,6 @@
       </rPr>
       <t xml:space="preserve">% endif
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Debe agregar al menos un problema para continuar.                             
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if len(bad_conditions):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Haga clic en una de las siguientes categorías para volver a ver sus selecciones.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for category in bad_conditions:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">#### </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[${ category.title() if not category is None else 'None' }]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_action('bad_conditions["' + str(category) + '"].claims') }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for index, row in bad_conditions[category].df.iterrows():
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ row['Interview description'] }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if len(bad_conditions) &lt; len(available_buttons):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ bad_conditions.add_action() }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endif                         </t>
     </r>
   </si>
   <si>
@@ -28364,39 +27650,6 @@
       </rPr>
       <t xml:space="preserve">"
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Más información acerca de "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ bad_conditions[i].df.loc[j]['Interview description'].lower().lstrip() }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
     </r>
   </si>
   <si>
@@ -30189,11 +29442,6 @@
     <t>Arreglar los problemas yo mismo y deducir el dinero de mi alquiler</t>
   </si>
   <si>
-    <t xml:space="preserve">Si lo están desalojando  
-Puede utilizar otro sitio web gratuito, [MADE](https://interviews.gbls.org/start/eviction), para luchar contra su desalojo en el tribunal.
-${ action_button_html(url_ask('launch_made'), label="lo estan desalojando") }                        </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">#### Cómo funciona  
 Este sitio web le ayudará a solucionar problemas relacionados con malas condiciones en su vivienda.
@@ -30469,232 +29717,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>${ collapse_template(what_problems_can_be_solved) }</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if len(bad_conditions.elements):                            
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Haga clic en una de las siguientes categorías para volver a ver sus opciones. 
-Haga clic en un problema para editar el momento cuando comenzó, subir evidencia y realizar otros cambios.                              
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for category in bad_conditions.elements:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#### [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:pencil-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${ category.title() if not category is None else 'None' }](</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ url_action('bad_conditions["' + str(category) + '"].claims') }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)                              
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% for index, row in bad_conditions[category].df.iterrows():
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>* [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:pencil-alt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ${ row['Interview description']}](</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${url_action(f'bad_conditions["{str(category)}"].details["{str(index)}"].condition_existed_at_start')}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% endfor 
-% endfor 
-% endif                                                       
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">% if len(bad_conditions) &lt; len(available_buttons):                
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>${ bad_conditions.add_action() }</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                      
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF008000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>% endif</t>
     </r>
   </si>
   <si>
@@ -30939,6 +29961,836 @@
       </rPr>
       <t xml:space="preserve">                                     </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if len(bad_conditions.elements):                            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Haga clic en una de las siguientes categorías para volver a ver sus opciones. 
+Haga clic en un problema para editar el momento cuando comenzó, subir evidencia y realizar otros cambios.                              
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for category in bad_conditions.elements:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#### [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:pencil-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${ tr_category(category, available_buttons).title() if not category is None else 'None' }](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ url_action('bad_conditions["' + str(category) + '"].claims') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)                              
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for index, row in bad_conditions[category].df.iterrows():
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:pencil-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${ row['Description_ES']}](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_action(f'bad_conditions["{str(category)}"].details["{str(index)}"].condition_existed_at_start')}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor 
+% endfor 
+% endif                                                       
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if len(bad_conditions) &lt; len(available_buttons):                
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ bad_conditions.add_action() }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                      
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>% endif</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Debe agregar al menos un problema para continuar.                             
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if len(bad_conditions):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Haga clic en una de las siguientes categorías para volver a ver sus selecciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif   
+% for category in bad_conditions:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">#### </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[${ tr_category(category, available_buttons).title() if not category is None else 'None' }]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${url_action('bad_conditions["' + str(category) + '"].claims') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for index, row in bad_conditions[category].df.iterrows():
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ row['Description_ES'] }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor 
+% endfor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if len(bad_conditions) &lt; len(available_buttons):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ bad_conditions.add_action() }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Más información acerca de "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ bad_conditions[i].df.loc[j]['Description_ES'].lower().lstrip() }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Los problemas que se listaron arriba se abordan en las siguientes secciones del [código sanitario](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">):
+Problema | Código sanitario 
+--------|------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for row in dataloader.get_rows(allowed_types=["24 hours"], filter_column="Deadline").iterrows():
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ row[1]['Description_ES'] }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ row[1]['Sanitary Code Section'] }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Los problemas que se listaron arriba se abordan en las siguientes secciones del [código sanitario](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">):      
+Problema | Código sanitario 
+--------|------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for row in dataloader.get_rows(allowed_types=[i], filter_column="Category").iterrows():                
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ row[1]['Description_ES'] }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ row[1]['Sanitary Code Section'] }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor                                 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hasta ahora ha revisado problemas en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ comma_and_list([f'"{str(tr_category(key, available_buttons)).capitalize()}"' for key in bad_conditions.keys()]) }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.  
+Toque “sí” si quiere ver problemas en otra categoría.            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% if len(bad_conditions):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ya listó los problemas de estas habitaciones:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% for button in bad_conditions:                           
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:pencil-alt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ${ str(tr_category(button, available_buttons)).capitalize() }](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ url_action('bad_conditions["' + button + '"].claims') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endfor 
+% else:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Su vivienda está protegida por el [código sanitario  del estado](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.mass.gov/doc/105-cmr-410-state-sanitary-code-chapter-ii-minimum-standards-of-fitness-for-human-habitation/download</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">).  
+Haga clic en los botones a continuación para saber qué significa que el hogar sea seguro en diferentes categorías.                             
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">% endif                         </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">**Si lo están desalojando**
+Puede utilizar otro sitio web gratuito, [MADE](https://interviews.gbls.org/start/eviction), para luchar contra su desalojo en el tribunal.
+${ action_button_html(url_ask('launch_made'), label="estoy siendo desalojado") }                        </t>
   </si>
 </sst>
 </file>
@@ -31324,8 +31176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="I528" sqref="I528"/>
+    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
+      <selection activeCell="I526" sqref="I526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -37703,7 +37555,7 @@
         <v>821</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>2022</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -45009,7 +44861,7 @@
         <v>1630</v>
       </c>
       <c r="H526" s="4" t="s">
-        <v>2019</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="527" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -45061,7 +44913,7 @@
         <v>1636</v>
       </c>
       <c r="H528" s="4" t="s">
-        <v>2023</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.35">
@@ -45165,7 +45017,7 @@
         <v>1648</v>
       </c>
       <c r="H532" s="4" t="s">
-        <v>2020</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="533" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -45347,7 +45199,7 @@
         <v>1670</v>
       </c>
       <c r="H539" s="4" t="s">
-        <v>1671</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="540" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -45361,19 +45213,19 @@
         <v>3</v>
       </c>
       <c r="D540" s="2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G540" s="3" t="s">
         <v>1672</v>
       </c>
-      <c r="E540" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G540" s="3" t="s">
+      <c r="H540" s="4" t="s">
         <v>1673</v>
-      </c>
-      <c r="H540" s="4" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.35">
@@ -45381,25 +45233,25 @@
         <v>1545</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C541" s="2">
         <v>0</v>
       </c>
       <c r="D541" s="2" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G541" s="3" t="s">
         <v>1676</v>
       </c>
-      <c r="E541" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F541" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G541" s="3" t="s">
+      <c r="H541" s="4" t="s">
         <v>1677</v>
-      </c>
-      <c r="H541" s="4" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.35">
@@ -45407,25 +45259,25 @@
         <v>1545</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C542" s="2">
         <v>1</v>
       </c>
       <c r="D542" s="2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G542" s="3" t="s">
         <v>1679</v>
       </c>
-      <c r="E542" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F542" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G542" s="3" t="s">
+      <c r="H542" s="4" t="s">
         <v>1680</v>
-      </c>
-      <c r="H542" s="4" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.35">
@@ -45433,25 +45285,25 @@
         <v>1545</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C543" s="2">
         <v>2</v>
       </c>
       <c r="D543" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G543" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="E543" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F543" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G543" s="3" t="s">
+      <c r="H543" s="4" t="s">
         <v>1683</v>
-      </c>
-      <c r="H543" s="4" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.35">
@@ -45459,25 +45311,25 @@
         <v>1545</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C544" s="2">
         <v>3</v>
       </c>
       <c r="D544" s="2" t="s">
+        <v>1684</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G544" s="3" t="s">
         <v>1685</v>
       </c>
-      <c r="E544" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F544" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G544" s="3" t="s">
+      <c r="H544" s="4" t="s">
         <v>1686</v>
-      </c>
-      <c r="H544" s="4" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.35">
@@ -45485,25 +45337,25 @@
         <v>1545</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C545" s="2">
         <v>4</v>
       </c>
       <c r="D545" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G545" s="3" t="s">
         <v>1688</v>
       </c>
-      <c r="E545" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F545" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G545" s="3" t="s">
+      <c r="H545" s="4" t="s">
         <v>1689</v>
-      </c>
-      <c r="H545" s="4" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.35">
@@ -45511,25 +45363,25 @@
         <v>1545</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C546" s="2">
         <v>5</v>
       </c>
       <c r="D546" s="2" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G546" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="E546" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F546" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G546" s="3" t="s">
+      <c r="H546" s="4" t="s">
         <v>1692</v>
-      </c>
-      <c r="H546" s="4" t="s">
-        <v>1693</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.35">
@@ -45537,25 +45389,25 @@
         <v>1545</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C547" s="2">
         <v>6</v>
       </c>
       <c r="D547" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G547" s="3" t="s">
         <v>1694</v>
       </c>
-      <c r="E547" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F547" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G547" s="3" t="s">
+      <c r="H547" s="4" t="s">
         <v>1695</v>
-      </c>
-      <c r="H547" s="4" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.35">
@@ -45563,25 +45415,25 @@
         <v>1545</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C548" s="2">
         <v>7</v>
       </c>
       <c r="D548" s="2" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G548" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F548" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G548" s="3" t="s">
+      <c r="H548" s="4" t="s">
         <v>1698</v>
-      </c>
-      <c r="H548" s="4" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.35">
@@ -45589,25 +45441,25 @@
         <v>1545</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C549" s="2">
         <v>8</v>
       </c>
       <c r="D549" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G549" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="E549" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F549" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G549" s="3" t="s">
+      <c r="H549" s="4" t="s">
         <v>1701</v>
-      </c>
-      <c r="H549" s="4" t="s">
-        <v>1702</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.35">
@@ -45615,25 +45467,25 @@
         <v>1545</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C550" s="2">
         <v>9</v>
       </c>
       <c r="D550" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G550" s="3" t="s">
         <v>1703</v>
       </c>
-      <c r="E550" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F550" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G550" s="3" t="s">
+      <c r="H550" s="4" t="s">
         <v>1704</v>
-      </c>
-      <c r="H550" s="4" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.35">
@@ -45641,25 +45493,25 @@
         <v>1545</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C551" s="2">
         <v>10</v>
       </c>
       <c r="D551" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G551" s="3" t="s">
         <v>1706</v>
       </c>
-      <c r="E551" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F551" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G551" s="3" t="s">
+      <c r="H551" s="4" t="s">
         <v>1707</v>
-      </c>
-      <c r="H551" s="4" t="s">
-        <v>1708</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.35">
@@ -45667,25 +45519,25 @@
         <v>1545</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C552" s="2">
         <v>11</v>
       </c>
       <c r="D552" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G552" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="E552" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F552" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G552" s="3" t="s">
+      <c r="H552" s="4" t="s">
         <v>1710</v>
-      </c>
-      <c r="H552" s="4" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.35">
@@ -45693,25 +45545,25 @@
         <v>1545</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C553" s="2">
         <v>12</v>
       </c>
       <c r="D553" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G553" s="3" t="s">
         <v>1712</v>
       </c>
-      <c r="E553" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F553" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G553" s="3" t="s">
+      <c r="H553" s="4" t="s">
         <v>1713</v>
-      </c>
-      <c r="H553" s="4" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.35">
@@ -45719,25 +45571,25 @@
         <v>1545</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C554" s="2">
         <v>13</v>
       </c>
       <c r="D554" s="2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G554" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="E554" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F554" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G554" s="3" t="s">
+      <c r="H554" s="4" t="s">
         <v>1716</v>
-      </c>
-      <c r="H554" s="4" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.35">
@@ -45745,25 +45597,25 @@
         <v>1545</v>
       </c>
       <c r="B555" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C555" s="2">
         <v>14</v>
       </c>
       <c r="D555" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G555" s="3" t="s">
         <v>1718</v>
       </c>
-      <c r="E555" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F555" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G555" s="3" t="s">
+      <c r="H555" s="4" t="s">
         <v>1719</v>
-      </c>
-      <c r="H555" s="4" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.35">
@@ -45771,25 +45623,25 @@
         <v>1545</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C556" s="2">
         <v>15</v>
       </c>
       <c r="D556" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G556" s="3" t="s">
         <v>1721</v>
       </c>
-      <c r="E556" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F556" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G556" s="3" t="s">
+      <c r="H556" s="4" t="s">
         <v>1722</v>
-      </c>
-      <c r="H556" s="4" t="s">
-        <v>1723</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.35">
@@ -45797,25 +45649,25 @@
         <v>1545</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C557" s="2">
         <v>16</v>
       </c>
       <c r="D557" s="2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G557" s="3" t="s">
         <v>1724</v>
       </c>
-      <c r="E557" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F557" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G557" s="3" t="s">
+      <c r="H557" s="4" t="s">
         <v>1725</v>
-      </c>
-      <c r="H557" s="4" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.35">
@@ -45823,25 +45675,25 @@
         <v>1545</v>
       </c>
       <c r="B558" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C558" s="2">
         <v>17</v>
       </c>
       <c r="D558" s="2" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G558" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="E558" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F558" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G558" s="3" t="s">
+      <c r="H558" s="4" t="s">
         <v>1728</v>
-      </c>
-      <c r="H558" s="4" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.35">
@@ -45849,25 +45701,25 @@
         <v>1545</v>
       </c>
       <c r="B559" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C559" s="2">
         <v>18</v>
       </c>
       <c r="D559" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G559" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="E559" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F559" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G559" s="3" t="s">
+      <c r="H559" s="4" t="s">
         <v>1731</v>
-      </c>
-      <c r="H559" s="4" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.35">
@@ -45875,25 +45727,25 @@
         <v>1545</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C560" s="2">
         <v>19</v>
       </c>
       <c r="D560" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G560" s="3" t="s">
         <v>1733</v>
       </c>
-      <c r="E560" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F560" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G560" s="3" t="s">
+      <c r="H560" s="4" t="s">
         <v>1734</v>
-      </c>
-      <c r="H560" s="4" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.35">
@@ -45901,25 +45753,25 @@
         <v>1545</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C561" s="2">
         <v>20</v>
       </c>
       <c r="D561" s="2" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G561" s="3" t="s">
         <v>1736</v>
       </c>
-      <c r="E561" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F561" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G561" s="3" t="s">
+      <c r="H561" s="4" t="s">
         <v>1737</v>
-      </c>
-      <c r="H561" s="4" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.35">
@@ -45927,25 +45779,25 @@
         <v>1545</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C562" s="2">
         <v>21</v>
       </c>
       <c r="D562" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G562" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="E562" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F562" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G562" s="3" t="s">
+      <c r="H562" s="4" t="s">
         <v>1740</v>
-      </c>
-      <c r="H562" s="4" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.35">
@@ -45953,25 +45805,25 @@
         <v>1545</v>
       </c>
       <c r="B563" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C563" s="2">
         <v>22</v>
       </c>
       <c r="D563" s="2" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G563" s="3" t="s">
         <v>1742</v>
       </c>
-      <c r="E563" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F563" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G563" s="3" t="s">
+      <c r="H563" s="4" t="s">
         <v>1743</v>
-      </c>
-      <c r="H563" s="4" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.35">
@@ -45979,25 +45831,25 @@
         <v>1545</v>
       </c>
       <c r="B564" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C564" s="2">
         <v>23</v>
       </c>
       <c r="D564" s="2" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G564" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="E564" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F564" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G564" s="3" t="s">
+      <c r="H564" s="4" t="s">
         <v>1746</v>
-      </c>
-      <c r="H564" s="4" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.35">
@@ -46005,25 +45857,25 @@
         <v>1545</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C565" s="2">
         <v>24</v>
       </c>
       <c r="D565" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G565" s="3" t="s">
         <v>1748</v>
       </c>
-      <c r="E565" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F565" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G565" s="3" t="s">
+      <c r="H565" s="4" t="s">
         <v>1749</v>
-      </c>
-      <c r="H565" s="4" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.35">
@@ -46031,25 +45883,25 @@
         <v>1545</v>
       </c>
       <c r="B566" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C566" s="2">
         <v>25</v>
       </c>
       <c r="D566" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G566" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="E566" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F566" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G566" s="3" t="s">
+      <c r="H566" s="4" t="s">
         <v>1752</v>
-      </c>
-      <c r="H566" s="4" t="s">
-        <v>1753</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.35">
@@ -46057,25 +45909,25 @@
         <v>1545</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C567" s="2">
         <v>26</v>
       </c>
       <c r="D567" s="2" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G567" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="E567" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G567" s="3" t="s">
+      <c r="H567" s="4" t="s">
         <v>1755</v>
-      </c>
-      <c r="H567" s="4" t="s">
-        <v>1756</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.35">
@@ -46083,25 +45935,25 @@
         <v>1545</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C568" s="2">
         <v>27</v>
       </c>
       <c r="D568" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G568" s="3" t="s">
         <v>1757</v>
       </c>
-      <c r="E568" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F568" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G568" s="3" t="s">
+      <c r="H568" s="4" t="s">
         <v>1758</v>
-      </c>
-      <c r="H568" s="4" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.35">
@@ -46109,25 +45961,25 @@
         <v>1545</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C569" s="2">
         <v>28</v>
       </c>
       <c r="D569" s="2" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G569" s="3" t="s">
         <v>1760</v>
       </c>
-      <c r="E569" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F569" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G569" s="3" t="s">
+      <c r="H569" s="4" t="s">
         <v>1761</v>
-      </c>
-      <c r="H569" s="4" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.35">
@@ -46135,25 +45987,25 @@
         <v>1545</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C570" s="2">
         <v>29</v>
       </c>
       <c r="D570" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G570" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="E570" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F570" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G570" s="3" t="s">
+      <c r="H570" s="4" t="s">
         <v>1764</v>
-      </c>
-      <c r="H570" s="4" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.35">
@@ -46161,25 +46013,25 @@
         <v>1545</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C571" s="2">
         <v>30</v>
       </c>
       <c r="D571" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G571" s="3" t="s">
         <v>1766</v>
       </c>
-      <c r="E571" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F571" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G571" s="3" t="s">
+      <c r="H571" s="4" t="s">
         <v>1767</v>
-      </c>
-      <c r="H571" s="4" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.35">
@@ -46187,25 +46039,25 @@
         <v>1545</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C572" s="2">
         <v>31</v>
       </c>
       <c r="D572" s="2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G572" s="3" t="s">
         <v>1769</v>
       </c>
-      <c r="E572" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F572" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G572" s="3" t="s">
+      <c r="H572" s="4" t="s">
         <v>1770</v>
-      </c>
-      <c r="H572" s="4" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="573" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46213,25 +46065,25 @@
         <v>1545</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C573" s="2">
         <v>0</v>
       </c>
       <c r="D573" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G573" s="3" t="s">
         <v>1773</v>
       </c>
-      <c r="E573" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F573" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G573" s="3" t="s">
+      <c r="H573" s="4" t="s">
         <v>1774</v>
-      </c>
-      <c r="H573" s="4" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="574" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -46239,25 +46091,25 @@
         <v>1545</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C574" s="2">
         <v>1</v>
       </c>
       <c r="D574" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G574" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="E574" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F574" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G574" s="3" t="s">
+      <c r="H574" s="4" t="s">
         <v>1777</v>
-      </c>
-      <c r="H574" s="4" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="575" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46265,25 +46117,25 @@
         <v>1545</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C575" s="2">
         <v>2</v>
       </c>
       <c r="D575" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G575" s="3" t="s">
         <v>1779</v>
       </c>
-      <c r="E575" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F575" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G575" s="3" t="s">
+      <c r="H575" s="4" t="s">
         <v>1780</v>
-      </c>
-      <c r="H575" s="4" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="576" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
@@ -46291,25 +46143,25 @@
         <v>1545</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C576" s="2">
         <v>3</v>
       </c>
       <c r="D576" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G576" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="E576" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F576" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G576" s="3" t="s">
-        <v>1783</v>
-      </c>
       <c r="H576" s="4" t="s">
-        <v>1784</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="577" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46317,25 +46169,25 @@
         <v>1545</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C577" s="2">
         <v>0</v>
       </c>
       <c r="D577" s="2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H577" s="4" t="s">
         <v>1786</v>
-      </c>
-      <c r="E577" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F577" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G577" s="3" t="s">
-        <v>1787</v>
-      </c>
-      <c r="H577" s="4" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="578" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.35">
@@ -46343,13 +46195,13 @@
         <v>1545</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="C578" s="2">
         <v>1</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>11</v>
@@ -46358,10 +46210,10 @@
         <v>12</v>
       </c>
       <c r="G578" s="3" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="H578" s="4" t="s">
-        <v>1791</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="579" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46369,13 +46221,13 @@
         <v>1545</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C579" s="2">
         <v>0</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>11</v>
@@ -46384,10 +46236,10 @@
         <v>12</v>
       </c>
       <c r="G579" s="3" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="H579" s="4" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="580" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -46395,13 +46247,13 @@
         <v>1545</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C580" s="2">
         <v>1</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>11</v>
@@ -46410,10 +46262,10 @@
         <v>12</v>
       </c>
       <c r="G580" s="3" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="H580" s="4" t="s">
-        <v>1798</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="581" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46421,13 +46273,13 @@
         <v>1545</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="C581" s="2">
         <v>0</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>11</v>
@@ -46436,10 +46288,10 @@
         <v>12</v>
       </c>
       <c r="G581" s="3" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="H581" s="4" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="582" spans="1:8" ht="270" customHeight="1" x14ac:dyDescent="0.35">
@@ -46447,13 +46299,13 @@
         <v>1545</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="C582" s="2">
         <v>0</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>11</v>
@@ -46462,10 +46314,10 @@
         <v>12</v>
       </c>
       <c r="G582" s="3" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="H582" s="4" t="s">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="583" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46473,13 +46325,13 @@
         <v>1545</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C583" s="2">
         <v>0</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>11</v>
@@ -46488,10 +46340,10 @@
         <v>12</v>
       </c>
       <c r="G583" s="3" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="H583" s="4" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="584" spans="1:8" ht="255" customHeight="1" x14ac:dyDescent="0.35">
@@ -46499,13 +46351,13 @@
         <v>1545</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="C584" s="2">
         <v>1</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>11</v>
@@ -46514,10 +46366,10 @@
         <v>12</v>
       </c>
       <c r="G584" s="3" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="H584" s="4" t="s">
-        <v>1812</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.35">
@@ -46525,13 +46377,13 @@
         <v>1545</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C585" s="2">
         <v>0</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>11</v>
@@ -46540,10 +46392,10 @@
         <v>12</v>
       </c>
       <c r="G585" s="3" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="H585" s="4" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="586" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -46551,13 +46403,13 @@
         <v>1545</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C586" s="2">
         <v>1</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>11</v>
@@ -46566,10 +46418,10 @@
         <v>12</v>
       </c>
       <c r="G586" s="3" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="H586" s="4" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="587" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -46577,13 +46429,13 @@
         <v>1545</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C587" s="2">
         <v>2</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>11</v>
@@ -46592,10 +46444,10 @@
         <v>12</v>
       </c>
       <c r="G587" s="3" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
       <c r="H587" s="4" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.35">
@@ -46603,13 +46455,13 @@
         <v>1545</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C588" s="2">
         <v>3</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>11</v>
@@ -46618,10 +46470,10 @@
         <v>12</v>
       </c>
       <c r="G588" s="3" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="H588" s="4" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="589" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -46629,13 +46481,13 @@
         <v>1545</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C589" s="2">
         <v>4</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>11</v>
@@ -46644,10 +46496,10 @@
         <v>12</v>
       </c>
       <c r="G589" s="3" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="H589" s="4" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.35">
@@ -46655,13 +46507,13 @@
         <v>1545</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C590" s="2">
         <v>5</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>11</v>
@@ -46670,10 +46522,10 @@
         <v>12</v>
       </c>
       <c r="G590" s="3" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="H590" s="4" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="591" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.35">
@@ -46681,13 +46533,13 @@
         <v>1545</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C591" s="2">
         <v>6</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>11</v>
@@ -46696,10 +46548,10 @@
         <v>12</v>
       </c>
       <c r="G591" s="3" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="H591" s="4" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.35">
@@ -46707,13 +46559,13 @@
         <v>1545</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C592" s="2">
         <v>7</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>11</v>
@@ -46722,10 +46574,10 @@
         <v>12</v>
       </c>
       <c r="G592" s="3" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="H592" s="4" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="593" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -46733,13 +46585,13 @@
         <v>1545</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C593" s="2">
         <v>8</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>11</v>
@@ -46748,10 +46600,10 @@
         <v>12</v>
       </c>
       <c r="G593" s="3" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="H593" s="4" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.35">
@@ -46759,13 +46611,13 @@
         <v>1545</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C594" s="2">
         <v>9</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>11</v>
@@ -46774,10 +46626,10 @@
         <v>12</v>
       </c>
       <c r="G594" s="3" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
       <c r="H594" s="4" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="595" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -46785,13 +46637,13 @@
         <v>1545</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C595" s="2">
         <v>10</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>11</v>
@@ -46800,10 +46652,10 @@
         <v>12</v>
       </c>
       <c r="G595" s="3" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
       <c r="H595" s="4" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="596" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -46811,13 +46663,13 @@
         <v>1545</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C596" s="2">
         <v>11</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>11</v>
@@ -46826,10 +46678,10 @@
         <v>12</v>
       </c>
       <c r="G596" s="3" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="H596" s="4" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.35">
@@ -46837,13 +46689,13 @@
         <v>1545</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C597" s="2">
         <v>12</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>11</v>
@@ -46852,10 +46704,10 @@
         <v>12</v>
       </c>
       <c r="G597" s="3" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="H597" s="4" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.35">
@@ -46863,13 +46715,13 @@
         <v>1545</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C598" s="2">
         <v>13</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>11</v>
@@ -46878,10 +46730,10 @@
         <v>12</v>
       </c>
       <c r="G598" s="3" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="H598" s="4" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.35">
@@ -46889,13 +46741,13 @@
         <v>1545</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C599" s="2">
         <v>14</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>11</v>
@@ -46904,10 +46756,10 @@
         <v>12</v>
       </c>
       <c r="G599" s="3" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="H599" s="4" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="600" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -46915,13 +46767,13 @@
         <v>1545</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C600" s="2">
         <v>15</v>
       </c>
       <c r="D600" s="2" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>11</v>
@@ -46930,10 +46782,10 @@
         <v>12</v>
       </c>
       <c r="G600" s="3" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
       <c r="H600" s="4" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.35">
@@ -46941,13 +46793,13 @@
         <v>1545</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C601" s="2">
         <v>16</v>
       </c>
       <c r="D601" s="2" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>11</v>
@@ -46956,10 +46808,10 @@
         <v>12</v>
       </c>
       <c r="G601" s="3" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
       <c r="H601" s="4" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.35">
@@ -46967,13 +46819,13 @@
         <v>1545</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C602" s="2">
         <v>17</v>
       </c>
       <c r="D602" s="2" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>11</v>
@@ -46982,10 +46834,10 @@
         <v>12</v>
       </c>
       <c r="G602" s="3" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="H602" s="4" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.35">
@@ -46993,13 +46845,13 @@
         <v>1545</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C603" s="2">
         <v>18</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>11</v>
@@ -47008,10 +46860,10 @@
         <v>12</v>
       </c>
       <c r="G603" s="3" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="H603" s="4" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.35">
@@ -47019,13 +46871,13 @@
         <v>1545</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C604" s="2">
         <v>19</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>11</v>
@@ -47034,10 +46886,10 @@
         <v>12</v>
       </c>
       <c r="G604" s="3" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="H604" s="4" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.35">
@@ -47045,13 +46897,13 @@
         <v>1545</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C605" s="2">
         <v>20</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>11</v>
@@ -47060,10 +46912,10 @@
         <v>12</v>
       </c>
       <c r="G605" s="3" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="H605" s="4" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="606" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47071,13 +46923,13 @@
         <v>1545</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="C606" s="2">
         <v>0</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>11</v>
@@ -47086,10 +46938,10 @@
         <v>12</v>
       </c>
       <c r="G606" s="3" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="H606" s="4" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="607" spans="1:8" ht="225" customHeight="1" x14ac:dyDescent="0.35">
@@ -47097,13 +46949,13 @@
         <v>1545</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
       <c r="C607" s="2">
         <v>1</v>
       </c>
       <c r="D607" s="2" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>11</v>
@@ -47112,10 +46964,10 @@
         <v>12</v>
       </c>
       <c r="G607" s="3" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
       <c r="H607" s="4" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="608" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47123,13 +46975,13 @@
         <v>1545</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="C608" s="2">
         <v>0</v>
       </c>
       <c r="D608" s="2" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>11</v>
@@ -47138,10 +46990,10 @@
         <v>12</v>
       </c>
       <c r="G608" s="3" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
       <c r="H608" s="4" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="609" spans="1:8" ht="300" customHeight="1" x14ac:dyDescent="0.35">
@@ -47149,13 +47001,13 @@
         <v>1545</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
       <c r="C609" s="2">
         <v>1</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>11</v>
@@ -47164,10 +47016,10 @@
         <v>12</v>
       </c>
       <c r="G609" s="3" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
       <c r="H609" s="4" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="610" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47175,13 +47027,13 @@
         <v>1545</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C610" s="2">
         <v>0</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>11</v>
@@ -47190,10 +47042,10 @@
         <v>12</v>
       </c>
       <c r="G610" s="3" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
       <c r="H610" s="4" t="s">
-        <v>1894</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.35">
@@ -47201,13 +47053,13 @@
         <v>1545</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C611" s="2">
         <v>1</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1895</v>
+        <v>1889</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>11</v>
@@ -47216,10 +47068,10 @@
         <v>12</v>
       </c>
       <c r="G611" s="3" t="s">
-        <v>1896</v>
+        <v>1890</v>
       </c>
       <c r="H611" s="4" t="s">
-        <v>1897</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.35">
@@ -47227,13 +47079,13 @@
         <v>1545</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C612" s="2">
         <v>2</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>11</v>
@@ -47242,10 +47094,10 @@
         <v>12</v>
       </c>
       <c r="G612" s="3" t="s">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="H612" s="4" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.35">
@@ -47253,13 +47105,13 @@
         <v>1545</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C613" s="2">
         <v>3</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>1901</v>
+        <v>1895</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>11</v>
@@ -47268,7 +47120,7 @@
         <v>12</v>
       </c>
       <c r="G613" s="5" t="s">
-        <v>1902</v>
+        <v>1896</v>
       </c>
       <c r="H613" s="6" t="s">
         <v>1349</v>
@@ -47279,13 +47131,13 @@
         <v>1545</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C614" s="2">
         <v>4</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>1903</v>
+        <v>1897</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>11</v>
@@ -47294,10 +47146,10 @@
         <v>12</v>
       </c>
       <c r="G614" s="3" t="s">
-        <v>1904</v>
+        <v>1898</v>
       </c>
       <c r="H614" s="4" t="s">
-        <v>1905</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.35">
@@ -47305,13 +47157,13 @@
         <v>1545</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C615" s="2">
         <v>5</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>1906</v>
+        <v>1900</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>11</v>
@@ -47320,10 +47172,10 @@
         <v>12</v>
       </c>
       <c r="G615" s="3" t="s">
-        <v>1907</v>
+        <v>1901</v>
       </c>
       <c r="H615" s="4" t="s">
-        <v>1908</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.35">
@@ -47331,13 +47183,13 @@
         <v>1545</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C616" s="2">
         <v>6</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>1909</v>
+        <v>1903</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>11</v>
@@ -47346,10 +47198,10 @@
         <v>12</v>
       </c>
       <c r="G616" s="3" t="s">
-        <v>1910</v>
+        <v>1904</v>
       </c>
       <c r="H616" s="4" t="s">
-        <v>1911</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.35">
@@ -47357,13 +47209,13 @@
         <v>1545</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C617" s="2">
         <v>7</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>1912</v>
+        <v>1906</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>11</v>
@@ -47372,10 +47224,10 @@
         <v>12</v>
       </c>
       <c r="G617" s="3" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="H617" s="4" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.35">
@@ -47383,13 +47235,13 @@
         <v>1545</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
       <c r="C618" s="2">
         <v>8</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>1915</v>
+        <v>1909</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>11</v>
@@ -47398,10 +47250,10 @@
         <v>12</v>
       </c>
       <c r="G618" s="3" t="s">
-        <v>1916</v>
+        <v>1910</v>
       </c>
       <c r="H618" s="4" t="s">
-        <v>1917</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.35">
@@ -47415,7 +47267,7 @@
         <v>0</v>
       </c>
       <c r="D619" s="2" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>11</v>
@@ -47424,10 +47276,10 @@
         <v>12</v>
       </c>
       <c r="G619" s="3" t="s">
-        <v>1919</v>
+        <v>1913</v>
       </c>
       <c r="H619" s="4" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="620" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.35">
@@ -47441,7 +47293,7 @@
         <v>1</v>
       </c>
       <c r="D620" s="2" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>11</v>
@@ -47450,10 +47302,10 @@
         <v>12</v>
       </c>
       <c r="G620" s="3" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
       <c r="H620" s="4" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.35">
@@ -47467,7 +47319,7 @@
         <v>2</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>11</v>
@@ -47476,10 +47328,10 @@
         <v>12</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="H621" s="4" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.35">
@@ -47493,7 +47345,7 @@
         <v>3</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>11</v>
@@ -47502,7 +47354,7 @@
         <v>12</v>
       </c>
       <c r="G622" s="3" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
       <c r="H622" s="4" t="s">
         <v>801</v>
@@ -47519,7 +47371,7 @@
         <v>4</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>11</v>
@@ -47528,10 +47380,10 @@
         <v>12</v>
       </c>
       <c r="G623" s="3" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
       <c r="H623" s="4" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="624" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47545,7 +47397,7 @@
         <v>0</v>
       </c>
       <c r="D624" s="2" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>11</v>
@@ -47554,10 +47406,10 @@
         <v>12</v>
       </c>
       <c r="G624" s="3" t="s">
-        <v>1933</v>
+        <v>1927</v>
       </c>
       <c r="H624" s="4" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.35">
@@ -47571,7 +47423,7 @@
         <v>1</v>
       </c>
       <c r="D625" s="2" t="s">
-        <v>1935</v>
+        <v>1929</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>11</v>
@@ -47580,10 +47432,10 @@
         <v>12</v>
       </c>
       <c r="G625" s="3" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="H625" s="4" t="s">
-        <v>1937</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.35">
@@ -47597,7 +47449,7 @@
         <v>2</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>1938</v>
+        <v>1932</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>11</v>
@@ -47606,10 +47458,10 @@
         <v>12</v>
       </c>
       <c r="G626" s="3" t="s">
-        <v>1939</v>
+        <v>1933</v>
       </c>
       <c r="H626" s="4" t="s">
-        <v>1940</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.35">
@@ -47623,7 +47475,7 @@
         <v>3</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>1941</v>
+        <v>1935</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>11</v>
@@ -47632,7 +47484,7 @@
         <v>12</v>
       </c>
       <c r="G627" s="3" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="H627" s="4" t="s">
         <v>583</v>
@@ -47649,7 +47501,7 @@
         <v>4</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>11</v>
@@ -47658,7 +47510,7 @@
         <v>12</v>
       </c>
       <c r="G628" s="3" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="H628" s="4" t="s">
         <v>1421</v>
@@ -47669,13 +47521,13 @@
         <v>1545</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="C629" s="2">
         <v>0</v>
       </c>
       <c r="D629" s="2" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>11</v>
@@ -47684,10 +47536,10 @@
         <v>12</v>
       </c>
       <c r="G629" s="3" t="s">
-        <v>1947</v>
+        <v>1941</v>
       </c>
       <c r="H629" s="4" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="630" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -47695,13 +47547,13 @@
         <v>1545</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
       <c r="C630" s="2">
         <v>1</v>
       </c>
       <c r="D630" s="2" t="s">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>11</v>
@@ -47710,10 +47562,10 @@
         <v>12</v>
       </c>
       <c r="G630" s="3" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="H630" s="4" t="s">
-        <v>1951</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="631" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47721,13 +47573,13 @@
         <v>1545</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="C631" s="2">
         <v>0</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>1953</v>
+        <v>1947</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>11</v>
@@ -47736,10 +47588,10 @@
         <v>12</v>
       </c>
       <c r="G631" s="3" t="s">
-        <v>1954</v>
+        <v>1948</v>
       </c>
       <c r="H631" s="4" t="s">
-        <v>1955</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="632" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47747,13 +47599,13 @@
         <v>1545</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>1952</v>
+        <v>1946</v>
       </c>
       <c r="C632" s="2">
         <v>1</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>11</v>
@@ -47762,10 +47614,10 @@
         <v>12</v>
       </c>
       <c r="G632" s="3" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="H632" s="4" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="633" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47773,13 +47625,13 @@
         <v>1545</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="C633" s="2">
         <v>0</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>11</v>
@@ -47788,10 +47640,10 @@
         <v>12</v>
       </c>
       <c r="G633" s="3" t="s">
-        <v>1961</v>
+        <v>1955</v>
       </c>
       <c r="H633" s="4" t="s">
-        <v>1962</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="634" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -47799,13 +47651,13 @@
         <v>1545</v>
       </c>
       <c r="B634" s="2" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="C634" s="2">
         <v>1</v>
       </c>
       <c r="D634" s="2" t="s">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>11</v>
@@ -47814,10 +47666,10 @@
         <v>12</v>
       </c>
       <c r="G634" s="3" t="s">
-        <v>1964</v>
+        <v>1958</v>
       </c>
       <c r="H634" s="4" t="s">
-        <v>1965</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="635" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -47840,10 +47692,10 @@
         <v>12</v>
       </c>
       <c r="G635" s="3" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="H635" s="4" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.35">
@@ -47851,13 +47703,13 @@
         <v>986</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C636" s="2">
         <v>1005</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>1969</v>
+        <v>1963</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>11</v>
@@ -47866,10 +47718,10 @@
         <v>12</v>
       </c>
       <c r="G636" s="5" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
       <c r="H636" s="6" t="s">
-        <v>1970</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.35">
@@ -47877,13 +47729,13 @@
         <v>986</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C637" s="2">
         <v>1007</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>1971</v>
+        <v>1965</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>11</v>
@@ -47892,10 +47744,10 @@
         <v>12</v>
       </c>
       <c r="G637" s="5" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="H637" s="6" t="s">
-        <v>1972</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.35">
@@ -47903,13 +47755,13 @@
         <v>986</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C638" s="2">
         <v>1009</v>
       </c>
       <c r="D638" s="2" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>11</v>
@@ -47918,10 +47770,10 @@
         <v>12</v>
       </c>
       <c r="G638" s="5" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="H638" s="6" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.35">
@@ -47929,13 +47781,13 @@
         <v>986</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C639" s="2">
         <v>1010</v>
       </c>
       <c r="D639" s="2" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>11</v>
@@ -47944,10 +47796,10 @@
         <v>12</v>
       </c>
       <c r="G639" s="5" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="H639" s="6" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.35">
@@ -47955,13 +47807,13 @@
         <v>986</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C640" s="2">
         <v>1012</v>
       </c>
       <c r="D640" s="2" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="E640" s="2" t="s">
         <v>11</v>
@@ -47970,10 +47822,10 @@
         <v>12</v>
       </c>
       <c r="G640" s="5" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="H640" s="6" t="s">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.35">
@@ -47981,13 +47833,13 @@
         <v>986</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C641" s="2">
         <v>1014</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>11</v>
@@ -47996,10 +47848,10 @@
         <v>12</v>
       </c>
       <c r="G641" s="5" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
       <c r="H641" s="6" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.35">
@@ -48007,13 +47859,13 @@
         <v>986</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C642" s="2">
         <v>1016</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>11</v>
@@ -48022,10 +47874,10 @@
         <v>12</v>
       </c>
       <c r="G642" s="5" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
       <c r="H642" s="6" t="s">
-        <v>1982</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.35">
@@ -48033,13 +47885,13 @@
         <v>986</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>1968</v>
+        <v>1962</v>
       </c>
       <c r="C643" s="2">
         <v>1017</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>11</v>
@@ -48048,10 +47900,10 @@
         <v>12</v>
       </c>
       <c r="G643" s="5" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="H643" s="6" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="644" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48065,7 +47917,7 @@
         <v>1019</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>11</v>
@@ -48074,10 +47926,10 @@
         <v>12</v>
       </c>
       <c r="G644" s="3" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="H644" s="4" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="645" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48091,7 +47943,7 @@
         <v>1022</v>
       </c>
       <c r="D645" s="2" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>11</v>
@@ -48100,10 +47952,10 @@
         <v>12</v>
       </c>
       <c r="G645" s="3" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="H645" s="4" t="s">
-        <v>1988</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="646" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48117,7 +47969,7 @@
         <v>1000</v>
       </c>
       <c r="D646" s="2" t="s">
-        <v>1989</v>
+        <v>1983</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>11</v>
@@ -48126,10 +47978,10 @@
         <v>12</v>
       </c>
       <c r="G646" s="3" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="H646" s="4" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="647" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48143,7 +47995,7 @@
         <v>1001</v>
       </c>
       <c r="D647" s="2" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>11</v>
@@ -48152,10 +48004,10 @@
         <v>12</v>
       </c>
       <c r="G647" s="3" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H647" s="4" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="648" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48169,7 +48021,7 @@
         <v>1002</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>11</v>
@@ -48178,10 +48030,10 @@
         <v>12</v>
       </c>
       <c r="G648" s="3" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="H648" s="4" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="649" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48195,7 +48047,7 @@
         <v>1003</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>11</v>
@@ -48204,10 +48056,10 @@
         <v>12</v>
       </c>
       <c r="G649" s="3" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="H649" s="4" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="650" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48221,7 +48073,7 @@
         <v>1004</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>11</v>
@@ -48230,10 +48082,10 @@
         <v>12</v>
       </c>
       <c r="G650" s="3" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="H650" s="4" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48247,7 +48099,7 @@
         <v>1005</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>11</v>
@@ -48256,10 +48108,10 @@
         <v>12</v>
       </c>
       <c r="G651" s="3" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="H651" s="4" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="652" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -48273,7 +48125,7 @@
         <v>1006</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>11</v>
@@ -48282,10 +48134,10 @@
         <v>12</v>
       </c>
       <c r="G652" s="3" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="H652" s="4" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="653" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -48299,7 +48151,7 @@
         <v>1007</v>
       </c>
       <c r="D653" s="2" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>11</v>
@@ -48308,10 +48160,10 @@
         <v>12</v>
       </c>
       <c r="G653" s="3" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
       <c r="H653" s="4" t="s">
-        <v>2004</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="654" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -48325,7 +48177,7 @@
         <v>1008</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="E654" s="2" t="s">
         <v>11</v>
@@ -48334,10 +48186,10 @@
         <v>12</v>
       </c>
       <c r="G654" s="3" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="H654" s="4" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="655" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -48351,7 +48203,7 @@
         <v>1009</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="E655" s="2" t="s">
         <v>11</v>
@@ -48360,10 +48212,10 @@
         <v>12</v>
       </c>
       <c r="G655" s="3" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="H655" s="4" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="656" spans="1:8" ht="390" customHeight="1" x14ac:dyDescent="0.35">
@@ -48386,10 +48238,10 @@
         <v>12</v>
       </c>
       <c r="G656" s="3" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="H656" s="4" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="657" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.35">
@@ -48412,10 +48264,10 @@
         <v>12</v>
       </c>
       <c r="G657" s="3" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="H657" s="4" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="658" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -48429,7 +48281,7 @@
         <v>1002</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="E658" s="2" t="s">
         <v>11</v>
@@ -48438,10 +48290,10 @@
         <v>12</v>
       </c>
       <c r="G658" s="3" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="H658" s="4" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.35">
@@ -48449,13 +48301,13 @@
         <v>1545</v>
       </c>
       <c r="B659" s="2" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
       <c r="C659" s="2">
         <v>1021</v>
       </c>
       <c r="D659" s="2" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E659" s="2" t="s">
         <v>11</v>
@@ -48464,10 +48316,10 @@
         <v>12</v>
       </c>
       <c r="G659" s="3" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="H659" s="4" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/HousingCodeChecklist/data/sources/housing_code_interview_es.xlsx
+++ b/docassemble/HousingCodeChecklist/data/sources/housing_code_interview_es.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="2024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="2025">
   <si>
     <t>interview</t>
   </si>
@@ -30791,6 +30791,35 @@
     <t xml:space="preserve">**Si lo están desalojando**
 Puede utilizar otro sitio web gratuito, [MADE](https://interviews.gbls.org/start/eviction), para luchar contra su desalojo en el tribunal.
 ${ action_button_html(url_ask('launch_made'), label="estoy siendo desalojado") }                        </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Haga clic en el enlace a continuación para comenzar a usar Defensa de Desalojo (MADE) de Massachusetts en una nueva ventana.
+Cuando haya terminado, puede volver aquí. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${ action_button_html('https://interviews.gbls.org/start/eviction', label='Launch MADE') }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -31176,8 +31205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A524" workbookViewId="0">
-      <selection activeCell="I526" sqref="I526"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="H523" sqref="H523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44783,7 +44812,7 @@
         <v>1621</v>
       </c>
       <c r="H523" s="4" t="s">
-        <v>548</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="524" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
